--- a/testData_cucumber/Desktop/Symbility/Executionsheet.xlsx
+++ b/testData_cucumber/Desktop/Symbility/Executionsheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8909589-D4DA-4414-98C7-4C9D42661A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="BDD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Execute</t>
   </si>
@@ -62,12 +61,18 @@
   </si>
   <si>
     <t>TC001_Homeowners_XM_STP_Assignment</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TC001_Notepad operations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,23 +440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -485,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -499,17 +504,29 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -519,7 +536,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -529,7 +546,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -539,7 +556,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -549,7 +566,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -559,7 +576,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -569,7 +586,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -579,7 +596,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -589,7 +606,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -599,7 +616,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -609,7 +626,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -619,7 +636,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -629,7 +646,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -639,7 +656,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -649,7 +666,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -659,7 +676,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -669,7 +686,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>

--- a/testData_cucumber/Desktop/Symbility/Executionsheet.xlsx
+++ b/testData_cucumber/Desktop/Symbility/Executionsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="BDD" sheetId="1" r:id="rId1"/>
@@ -73,25 +73,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -147,20 +135,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +426,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -526,176 +508,6 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
